--- a/Team-Data/2014-15/12-13-2014-15.xlsx
+++ b/Team-Data/2014-15/12-13-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>0.696</v>
+        <v>0.727</v>
       </c>
       <c r="H2" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="J2" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.466</v>
+        <v>0.468</v>
       </c>
       <c r="L2" t="n">
         <v>9.300000000000001</v>
@@ -696,16 +763,16 @@
         <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>0.37</v>
+        <v>0.373</v>
       </c>
       <c r="O2" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="P2" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.779</v>
+        <v>0.775</v>
       </c>
       <c r="R2" t="n">
         <v>8.6</v>
@@ -717,46 +784,46 @@
         <v>40.4</v>
       </c>
       <c r="U2" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="V2" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W2" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="X2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z2" t="n">
         <v>18.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>7</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
         <v>14</v>
@@ -765,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -774,22 +841,22 @@
         <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -798,13 +865,13 @@
         <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
         <v>14</v>
@@ -813,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
         <v>14</v>
@@ -956,10 +1023,10 @@
         <v>11</v>
       </c>
       <c r="AN3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -986,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="AX3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1001,7 +1068,7 @@
         <v>6</v>
       </c>
       <c r="BC3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -1030,64 +1097,64 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
         <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>0.455</v>
+        <v>0.429</v>
       </c>
       <c r="H4" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I4" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="J4" t="n">
-        <v>81.8</v>
+        <v>82.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.44</v>
       </c>
       <c r="L4" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.34</v>
+        <v>0.321</v>
       </c>
       <c r="O4" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P4" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.765</v>
+        <v>0.768</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
-        <v>32.7</v>
+        <v>32.4</v>
       </c>
       <c r="T4" t="n">
         <v>42.7</v>
       </c>
       <c r="U4" t="n">
-        <v>20.5</v>
+        <v>20.1</v>
       </c>
       <c r="V4" t="n">
         <v>14.7</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
         <v>4.1</v>
@@ -1096,76 +1163,76 @@
         <v>4.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AA4" t="n">
         <v>20.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.9</v>
+        <v>-3.2</v>
       </c>
       <c r="AD4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE4" t="n">
         <v>20</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>20</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX4" t="n">
         <v>23</v>
@@ -1180,10 +1247,10 @@
         <v>22</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -1212,64 +1279,64 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>0.261</v>
+        <v>0.273</v>
       </c>
       <c r="H5" t="n">
         <v>49.1</v>
       </c>
       <c r="I5" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="J5" t="n">
-        <v>84.8</v>
+        <v>85</v>
       </c>
       <c r="K5" t="n">
-        <v>0.427</v>
+        <v>0.429</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M5" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.308</v>
+        <v>0.304</v>
       </c>
       <c r="O5" t="n">
         <v>16.5</v>
       </c>
       <c r="P5" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.738</v>
+        <v>0.744</v>
       </c>
       <c r="R5" t="n">
         <v>9.4</v>
       </c>
       <c r="S5" t="n">
-        <v>32.2</v>
+        <v>32.5</v>
       </c>
       <c r="T5" t="n">
-        <v>41.6</v>
+        <v>41.9</v>
       </c>
       <c r="U5" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="V5" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="W5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="X5" t="n">
         <v>4.6</v>
@@ -1281,22 +1348,22 @@
         <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-7.2</v>
+        <v>-6.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>25</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
         <v>25</v>
@@ -1305,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="AI5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>8</v>
@@ -1323,31 +1390,31 @@
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ5" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AR5" t="n">
         <v>26</v>
       </c>
       <c r="AS5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AT5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU5" t="n">
         <v>19</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>22</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
       </c>
       <c r="AW5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX5" t="n">
         <v>17</v>
@@ -1359,13 +1426,13 @@
         <v>3</v>
       </c>
       <c r="BA5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB5" t="n">
+        <v>24</v>
+      </c>
+      <c r="BC5" t="n">
         <v>26</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>28</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>3.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1490,10 +1557,10 @@
         <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL6" t="n">
         <v>13</v>
@@ -1517,25 +1584,25 @@
         <v>17</v>
       </c>
       <c r="AS6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX6" t="n">
         <v>4</v>
       </c>
       <c r="AY6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1666,22 +1733,22 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
         <v>12</v>
       </c>
       <c r="AM7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN7" t="n">
         <v>14</v>
@@ -1693,28 +1760,28 @@
         <v>5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>8</v>
       </c>
       <c r="AW7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX7" t="n">
         <v>19</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>20</v>
       </c>
       <c r="AY7" t="n">
         <v>16</v>
@@ -1723,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -1776,76 +1843,76 @@
         <v>41.5</v>
       </c>
       <c r="J8" t="n">
-        <v>86.7</v>
+        <v>86.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.478</v>
+        <v>0.482</v>
       </c>
       <c r="L8" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="M8" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.344</v>
+        <v>0.351</v>
       </c>
       <c r="O8" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="P8" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="R8" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="U8" t="n">
         <v>23.5</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0.764</v>
-      </c>
-      <c r="R8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="T8" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>23.4</v>
-      </c>
       <c r="V8" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="W8" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AD8" t="n">
         <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>10</v>
@@ -1857,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL8" t="n">
         <v>4</v>
@@ -1866,25 +1933,25 @@
         <v>2</v>
       </c>
       <c r="AN8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="n">
         <v>16</v>
       </c>
-      <c r="AO8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AS8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1896,16 +1963,16 @@
         <v>13</v>
       </c>
       <c r="AX8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AZ8" t="n">
         <v>13</v>
       </c>
       <c r="BA8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -1940,97 +2007,97 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>0.435</v>
+        <v>0.455</v>
       </c>
       <c r="H9" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I9" t="n">
         <v>38</v>
       </c>
       <c r="J9" t="n">
-        <v>87.2</v>
+        <v>86.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.435</v>
+        <v>0.438</v>
       </c>
       <c r="L9" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M9" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.323</v>
+        <v>0.327</v>
       </c>
       <c r="O9" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P9" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.74</v>
+        <v>0.744</v>
       </c>
       <c r="R9" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S9" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T9" t="n">
-        <v>45.3</v>
+        <v>45</v>
       </c>
       <c r="U9" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V9" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W9" t="n">
         <v>7.2</v>
       </c>
       <c r="X9" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="AA9" t="n">
         <v>21.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.1</v>
+        <v>103.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1.7</v>
+        <v>-1.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG9" t="n">
         <v>18</v>
       </c>
-      <c r="AG9" t="n">
-        <v>19</v>
-      </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2042,13 +2109,13 @@
         <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2057,43 +2124,43 @@
         <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR9" t="n">
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT9" t="n">
         <v>4</v>
       </c>
       <c r="AU9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX9" t="n">
         <v>13</v>
       </c>
-      <c r="AW9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>12</v>
-      </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -2122,100 +2189,100 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>0.208</v>
+        <v>0.174</v>
       </c>
       <c r="H10" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I10" t="n">
         <v>34.6</v>
       </c>
       <c r="J10" t="n">
-        <v>84.7</v>
+        <v>85</v>
       </c>
       <c r="K10" t="n">
-        <v>0.409</v>
+        <v>0.407</v>
       </c>
       <c r="L10" t="n">
         <v>7.4</v>
       </c>
       <c r="M10" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0.328</v>
+        <v>0.329</v>
       </c>
       <c r="O10" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P10" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.702</v>
+        <v>0.697</v>
       </c>
       <c r="R10" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="S10" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T10" t="n">
         <v>44.8</v>
       </c>
       <c r="U10" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V10" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W10" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X10" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="Y10" t="n">
         <v>5.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-5.8</v>
+        <v>-6.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
         <v>28</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ10" t="n">
         <v>9</v>
@@ -2224,13 +2291,13 @@
         <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>12</v>
       </c>
       <c r="AN10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO10" t="n">
         <v>22</v>
@@ -2242,28 +2309,28 @@
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU10" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AV10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
         <v>22</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AY10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ10" t="n">
         <v>8</v>
@@ -2272,10 +2339,10 @@
         <v>16</v>
       </c>
       <c r="BB10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -2304,49 +2371,49 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.909</v>
+        <v>0.905</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="J11" t="n">
         <v>83.7</v>
       </c>
       <c r="K11" t="n">
-        <v>0.48</v>
+        <v>0.482</v>
       </c>
       <c r="L11" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M11" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.372</v>
+        <v>0.376</v>
       </c>
       <c r="O11" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="P11" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="Q11" t="n">
         <v>0.778</v>
       </c>
       <c r="R11" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S11" t="n">
         <v>35.8</v>
@@ -2355,34 +2422,34 @@
         <v>45.7</v>
       </c>
       <c r="U11" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="V11" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W11" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X11" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2403,22 +2470,22 @@
         <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ11" t="n">
         <v>8</v>
@@ -2445,13 +2512,13 @@
         <v>1</v>
       </c>
       <c r="AY11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AZ11" t="n">
         <v>12</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BB11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -2501,73 +2568,73 @@
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="J12" t="n">
-        <v>81.8</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.427</v>
+        <v>0.426</v>
       </c>
       <c r="L12" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="M12" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.344</v>
+        <v>0.349</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>18.1</v>
       </c>
       <c r="P12" t="n">
-        <v>24.8</v>
+        <v>25.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.706</v>
+        <v>0.711</v>
       </c>
       <c r="R12" t="n">
         <v>12.5</v>
       </c>
       <c r="S12" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T12" t="n">
-        <v>44.2</v>
+        <v>44</v>
       </c>
       <c r="U12" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V12" t="n">
         <v>17.6</v>
       </c>
       <c r="W12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X12" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB12" t="n">
         <v>99.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF12" t="n">
         <v>3</v>
@@ -2576,13 +2643,13 @@
         <v>3</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
@@ -2594,52 +2661,52 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT12" t="n">
         <v>10</v>
       </c>
       <c r="AU12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>27</v>
       </c>
-      <c r="AZ12" t="n">
-        <v>26</v>
-      </c>
       <c r="BA12" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB12" t="n">
         <v>18</v>
       </c>
-      <c r="BB12" t="n">
-        <v>19</v>
-      </c>
       <c r="BC12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -2668,100 +2735,100 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>0.292</v>
+        <v>0.304</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J13" t="n">
-        <v>84.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.422</v>
+        <v>0.423</v>
       </c>
       <c r="L13" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M13" t="n">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.328</v>
+        <v>0.33</v>
       </c>
       <c r="O13" t="n">
         <v>15</v>
       </c>
       <c r="P13" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.73</v>
+        <v>0.727</v>
       </c>
       <c r="R13" t="n">
         <v>11.6</v>
       </c>
       <c r="S13" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T13" t="n">
-        <v>45.7</v>
+        <v>45.5</v>
       </c>
       <c r="U13" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="V13" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="X13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y13" t="n">
         <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
         <v>21</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.2</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4.2</v>
+        <v>-4</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
         <v>12</v>
@@ -2770,13 +2837,13 @@
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AM13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
         <v>28</v>
@@ -2785,40 +2852,40 @@
         <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT13" t="n">
         <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AV13" t="n">
         <v>14</v>
       </c>
       <c r="AW13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY13" t="n">
         <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC13" t="n">
         <v>22</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.696</v>
+        <v>0.727</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2868,37 +2935,37 @@
         <v>38.8</v>
       </c>
       <c r="J14" t="n">
-        <v>81</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.479</v>
+        <v>0.482</v>
       </c>
       <c r="L14" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.383</v>
+        <v>0.378</v>
       </c>
       <c r="O14" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="P14" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R14" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="T14" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="U14" t="n">
         <v>24.2</v>
@@ -2910,49 +2977,49 @@
         <v>7.2</v>
       </c>
       <c r="X14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y14" t="n">
         <v>3.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AB14" t="n">
         <v>106.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
         <v>7</v>
       </c>
       <c r="AF14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI14" t="n">
         <v>8</v>
       </c>
-      <c r="AH14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>9</v>
-      </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM14" t="n">
         <v>4</v>
@@ -2973,7 +3040,7 @@
         <v>30</v>
       </c>
       <c r="AS14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AT14" t="n">
         <v>28</v>
@@ -2985,13 +3052,13 @@
         <v>6</v>
       </c>
       <c r="AW14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ14" t="n">
         <v>18</v>
@@ -3003,7 +3070,7 @@
         <v>4</v>
       </c>
       <c r="BC14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -3032,85 +3099,85 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" t="n">
-        <v>0.318</v>
+        <v>0.304</v>
       </c>
       <c r="H15" t="n">
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="J15" t="n">
-        <v>87.7</v>
+        <v>87.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.444</v>
+        <v>0.441</v>
       </c>
       <c r="L15" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M15" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O15" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="P15" t="n">
-        <v>25.6</v>
+        <v>26.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.742</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
         <v>12.2</v>
       </c>
       <c r="S15" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T15" t="n">
-        <v>42.4</v>
+        <v>42.1</v>
       </c>
       <c r="U15" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V15" t="n">
         <v>12.1</v>
       </c>
       <c r="W15" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X15" t="n">
         <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.8</v>
+        <v>22.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>103.3</v>
+        <v>102.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.9</v>
+        <v>-7.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>22</v>
@@ -3122,25 +3189,25 @@
         <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
         <v>2</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM15" t="n">
         <v>24</v>
       </c>
-      <c r="AM15" t="n">
-        <v>23</v>
-      </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
         <v>7</v>
@@ -3149,7 +3216,7 @@
         <v>6</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>5</v>
@@ -3158,10 +3225,10 @@
         <v>24</v>
       </c>
       <c r="AT15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
@@ -3176,16 +3243,16 @@
         <v>6</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BB15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -3214,61 +3281,61 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" t="n">
         <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.826</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="I16" t="n">
-        <v>38.6</v>
+        <v>38.3</v>
       </c>
       <c r="J16" t="n">
-        <v>81.7</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.472</v>
       </c>
       <c r="L16" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.379</v>
+        <v>0.375</v>
       </c>
       <c r="O16" t="n">
         <v>19.5</v>
       </c>
       <c r="P16" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.774</v>
+        <v>0.778</v>
       </c>
       <c r="R16" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S16" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T16" t="n">
         <v>42</v>
       </c>
       <c r="U16" t="n">
-        <v>22.4</v>
+        <v>21.9</v>
       </c>
       <c r="V16" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W16" t="n">
         <v>8.1</v>
@@ -3280,19 +3347,19 @@
         <v>5.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>102.3</v>
+        <v>101.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>2</v>
@@ -3304,13 +3371,13 @@
         <v>2</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
         <v>4</v>
@@ -3322,34 +3389,34 @@
         <v>28</v>
       </c>
       <c r="AN16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO16" t="n">
         <v>6</v>
       </c>
       <c r="AP16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AT16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV16" t="n">
         <v>7</v>
       </c>
       <c r="AW16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX16" t="n">
         <v>25</v>
@@ -3361,10 +3428,10 @@
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BC16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>-3.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF17" t="n">
         <v>14</v>
@@ -3495,16 +3562,16 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL17" t="n">
         <v>11</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
         <v>11</v>
@@ -3513,7 +3580,7 @@
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3543,7 +3610,7 @@
         <v>9</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
         <v>23</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -3578,133 +3645,133 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" t="n">
         <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.478</v>
       </c>
       <c r="H18" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I18" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J18" t="n">
-        <v>82</v>
+        <v>82.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.46</v>
+        <v>0.456</v>
       </c>
       <c r="L18" t="n">
         <v>6.3</v>
       </c>
       <c r="M18" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.344</v>
+        <v>0.336</v>
       </c>
       <c r="O18" t="n">
         <v>17.5</v>
       </c>
       <c r="P18" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
       <c r="R18" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="S18" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T18" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U18" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V18" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="W18" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="X18" t="n">
         <v>4.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.3</v>
+        <v>98.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.4</v>
+        <v>-1.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
         <v>14</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>3</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
         <v>16</v>
       </c>
       <c r="AK18" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
         <v>25</v>
       </c>
       <c r="AM18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU18" t="n">
         <v>11</v>
@@ -3713,10 +3780,10 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY18" t="n">
         <v>21</v>
@@ -3728,10 +3795,10 @@
         <v>19</v>
       </c>
       <c r="BB18" t="n">
+        <v>19</v>
+      </c>
+      <c r="BC18" t="n">
         <v>18</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>17</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -3838,25 +3905,25 @@
         <v>-10.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
         <v>27</v>
       </c>
       <c r="AF19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
         <v>27</v>
       </c>
       <c r="AH19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
         <v>18</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3877,7 +3944,7 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR19" t="n">
         <v>4</v>
@@ -3901,13 +3968,13 @@
         <v>24</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -3942,133 +4009,133 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="n">
         <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>0.476</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J20" t="n">
-        <v>84.3</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.461</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.349</v>
+        <v>0.344</v>
       </c>
       <c r="O20" t="n">
         <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.743</v>
+        <v>0.727</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>12</v>
       </c>
       <c r="S20" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="T20" t="n">
-        <v>42.4</v>
+        <v>43.3</v>
       </c>
       <c r="U20" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V20" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="W20" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>26</v>
       </c>
       <c r="AI20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>7</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>11</v>
-      </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
       </c>
       <c r="AN20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP20" t="n">
         <v>15</v>
       </c>
-      <c r="AO20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AR20" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AS20" t="n">
         <v>20</v>
       </c>
       <c r="AT20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
         <v>13</v>
@@ -4077,10 +4144,10 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
         <v>26</v>
@@ -4089,13 +4156,13 @@
         <v>11</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC20" t="n">
         <v>14</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -4211,13 +4278,13 @@
         <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH21" t="n">
         <v>24</v>
       </c>
       <c r="AI21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="n">
         <v>26</v>
@@ -4226,13 +4293,13 @@
         <v>18</v>
       </c>
       <c r="AL21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM21" t="n">
         <v>22</v>
       </c>
       <c r="AN21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4256,7 +4323,7 @@
         <v>15</v>
       </c>
       <c r="AV21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW21" t="n">
         <v>21</v>
@@ -4265,7 +4332,7 @@
         <v>28</v>
       </c>
       <c r="AY21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -4384,25 +4451,25 @@
         <v>0.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG22" t="n">
         <v>19</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
         <v>26</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
         <v>24</v>
@@ -4411,7 +4478,7 @@
         <v>19</v>
       </c>
       <c r="AM22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN22" t="n">
         <v>28</v>
@@ -4423,16 +4490,16 @@
         <v>17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS22" t="n">
         <v>7</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU22" t="n">
         <v>26</v>
@@ -4441,7 +4508,7 @@
         <v>25</v>
       </c>
       <c r="AW22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4459,7 +4526,7 @@
         <v>25</v>
       </c>
       <c r="BC22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -4491,34 +4558,34 @@
         <v>25</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
-        <v>80</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.459</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>18.6</v>
+        <v>18.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.378</v>
+        <v>0.373</v>
       </c>
       <c r="O23" t="n">
         <v>14.4</v>
@@ -4530,46 +4597,46 @@
         <v>0.728</v>
       </c>
       <c r="R23" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>32.3</v>
+        <v>32.7</v>
       </c>
       <c r="T23" t="n">
-        <v>41.1</v>
+        <v>41.9</v>
       </c>
       <c r="U23" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="V23" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.4</v>
+        <v>-5.1</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="n">
         <v>22</v>
@@ -4581,43 +4648,43 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
         <v>20</v>
       </c>
       <c r="AM23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
       </c>
       <c r="AP23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AU23" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AV23" t="n">
         <v>22</v>
@@ -4629,16 +4696,16 @@
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AZ23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA23" t="n">
         <v>25</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -4670,55 +4737,55 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.091</v>
       </c>
       <c r="H24" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>33.6</v>
+        <v>33.3</v>
       </c>
       <c r="J24" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.414</v>
+        <v>0.41</v>
       </c>
       <c r="L24" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M24" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.305</v>
+        <v>0.301</v>
       </c>
       <c r="O24" t="n">
-        <v>16.8</v>
+        <v>16.5</v>
       </c>
       <c r="P24" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.667</v>
+        <v>0.664</v>
       </c>
       <c r="R24" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S24" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="T24" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="U24" t="n">
         <v>20.7</v>
@@ -4736,43 +4803,43 @@
         <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>91.40000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-12.2</v>
+        <v>-12.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
       </c>
       <c r="AF24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG24" t="n">
         <v>30</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
       </c>
       <c r="AL24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>9</v>
@@ -4781,22 +4848,22 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AU24" t="n">
         <v>18</v>
@@ -4811,7 +4878,7 @@
         <v>11</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -4948,22 +5015,22 @@
         <v>4</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM25" t="n">
         <v>3</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
         <v>25</v>
@@ -4972,34 +5039,34 @@
         <v>1</v>
       </c>
       <c r="AR25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS25" t="n">
         <v>17</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV25" t="n">
         <v>23</v>
       </c>
       <c r="AW25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY25" t="n">
         <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" t="n">
         <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.75</v>
+        <v>0.739</v>
       </c>
       <c r="H26" t="n">
         <v>48</v>
       </c>
       <c r="I26" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J26" t="n">
-        <v>85.59999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K26" t="n">
         <v>0.452</v>
       </c>
       <c r="L26" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="M26" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="N26" t="n">
-        <v>0.366</v>
+        <v>0.369</v>
       </c>
       <c r="O26" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="P26" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R26" t="n">
         <v>11.6</v>
@@ -5085,34 +5152,34 @@
         <v>46.4</v>
       </c>
       <c r="U26" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V26" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W26" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X26" t="n">
         <v>5.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>102</v>
+        <v>102.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5127,31 +5194,31 @@
         <v>26</v>
       </c>
       <c r="AI26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK26" t="n">
         <v>20</v>
       </c>
       <c r="AL26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>11</v>
       </c>
       <c r="AO26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR26" t="n">
         <v>7</v>
@@ -5166,10 +5233,10 @@
         <v>8</v>
       </c>
       <c r="AV26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX26" t="n">
         <v>5</v>
@@ -5178,16 +5245,16 @@
         <v>5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -5216,58 +5283,58 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
       </c>
       <c r="F27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="H27" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="I27" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.458</v>
       </c>
-      <c r="H27" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="I27" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.453</v>
-      </c>
       <c r="L27" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="M27" t="n">
-        <v>14.6</v>
+        <v>14</v>
       </c>
       <c r="N27" t="n">
-        <v>0.331</v>
+        <v>0.327</v>
       </c>
       <c r="O27" t="n">
-        <v>25</v>
+        <v>25.6</v>
       </c>
       <c r="P27" t="n">
-        <v>32.2</v>
+        <v>32.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.777</v>
+        <v>0.78</v>
       </c>
       <c r="R27" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="S27" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="T27" t="n">
-        <v>45.3</v>
+        <v>44.9</v>
       </c>
       <c r="U27" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V27" t="n">
         <v>16.3</v>
@@ -5276,34 +5343,34 @@
         <v>6</v>
       </c>
       <c r="X27" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="AB27" t="n">
-        <v>101</v>
+        <v>101.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG27" t="n">
         <v>15</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>17</v>
       </c>
       <c r="AH27" t="n">
         <v>3</v>
@@ -5312,10 +5379,10 @@
         <v>24</v>
       </c>
       <c r="AJ27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5324,7 +5391,7 @@
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,19 +5400,19 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AS27" t="n">
         <v>6</v>
       </c>
       <c r="AT27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
@@ -5354,7 +5421,7 @@
         <v>28</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>30</v>
@@ -5366,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC27" t="n">
         <v>16</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -5398,73 +5465,73 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" t="n">
         <v>7</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.696</v>
       </c>
       <c r="H28" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J28" t="n">
-        <v>82.2</v>
+        <v>81.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.462</v>
+        <v>0.464</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>22.3</v>
+        <v>22.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.369</v>
+        <v>0.376</v>
       </c>
       <c r="O28" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="P28" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.78</v>
+        <v>0.781</v>
       </c>
       <c r="R28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>34.6</v>
+        <v>34.3</v>
       </c>
       <c r="T28" t="n">
-        <v>44.4</v>
+        <v>44.1</v>
       </c>
       <c r="U28" t="n">
         <v>24.1</v>
       </c>
       <c r="V28" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X28" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA28" t="n">
         <v>19.7</v>
@@ -5473,46 +5540,46 @@
         <v>101.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG28" t="n">
         <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
         <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL28" t="n">
         <v>9</v>
       </c>
-      <c r="AL28" t="n">
-        <v>10</v>
-      </c>
       <c r="AM28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN28" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AO28" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
         <v>6</v>
@@ -5530,16 +5597,16 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
         <v>12</v>
       </c>
       <c r="AX28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ28" t="n">
         <v>5</v>
@@ -5548,10 +5615,10 @@
         <v>24</v>
       </c>
       <c r="BB28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -5658,28 +5725,28 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF29" t="n">
         <v>4</v>
       </c>
       <c r="AG29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK29" t="n">
         <v>10</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>11</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5706,25 +5773,25 @@
         <v>23</v>
       </c>
       <c r="AT29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA29" t="n">
         <v>2</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-5.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
       </c>
       <c r="AF30" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH30" t="n">
         <v>26</v>
@@ -5858,13 +5925,13 @@
         <v>23</v>
       </c>
       <c r="AJ30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM30" t="n">
         <v>19</v>
@@ -5873,25 +5940,25 @@
         <v>25</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
         <v>14</v>
       </c>
       <c r="AQ30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS30" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
         <v>25</v>
       </c>
       <c r="AU30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV30" t="n">
         <v>19</v>
@@ -5900,22 +5967,22 @@
         <v>24</v>
       </c>
       <c r="AX30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY30" t="n">
         <v>11</v>
       </c>
       <c r="AZ30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA30" t="n">
         <v>23</v>
       </c>
       <c r="BB30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>3.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
         <v>7</v>
@@ -6046,7 +6113,7 @@
         <v>5</v>
       </c>
       <c r="AL31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM31" t="n">
         <v>27</v>
@@ -6061,7 +6128,7 @@
         <v>18</v>
       </c>
       <c r="AQ31" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AR31" t="n">
         <v>18</v>
@@ -6082,7 +6149,7 @@
         <v>10</v>
       </c>
       <c r="AX31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY31" t="n">
         <v>10</v>
@@ -6091,13 +6158,13 @@
         <v>22</v>
       </c>
       <c r="BA31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-13-2014-15</t>
+          <t>2014-12-13</t>
         </is>
       </c>
     </row>
